--- a/data/trans_dic/P15D$nada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.11186108182804</v>
+        <v>0.09109720838900508</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0967621308118486</v>
+        <v>0.09428575000519471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07060979148710873</v>
+        <v>0.08910458487186798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07862674102528276</v>
+        <v>0.07661929663860789</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1424137939380869</v>
+        <v>0.1537261125526561</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02086285336139297</v>
+        <v>0.01896885488673039</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.100586050884251</v>
+        <v>0.1006928909945558</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0949063586992251</v>
+        <v>0.09874441296995812</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1560484642099822</v>
+        <v>0.1572966600551704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07371576439246026</v>
+        <v>0.0624704283788916</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.102532262014212</v>
+        <v>0.1041099000864381</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4690547123557837</v>
+        <v>0.4824784887883394</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.297894326708451</v>
+        <v>0.3012640248660639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3117473177545679</v>
+        <v>0.3238993876653056</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2906126465523133</v>
+        <v>0.283802720518265</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3371262107862114</v>
+        <v>0.3379453075702072</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3898047880719961</v>
+        <v>0.3929693456020885</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1843333468910555</v>
+        <v>0.173699159334825</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2514594635158151</v>
+        <v>0.2497907501928373</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3494277320277137</v>
+        <v>0.3396793592153162</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3137568538645986</v>
+        <v>0.3068273224202023</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2076138957172816</v>
+        <v>0.2116923921184441</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2291368546051028</v>
+        <v>0.2387567095890004</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1593955786005655</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1951630974075356</v>
+        <v>0.1951630974075355</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05230793093110281</v>
+        <v>0.05011728689331434</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1347296529836161</v>
+        <v>0.1470762106108131</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06167215069471683</v>
+        <v>0.06208107237116707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1032089752125479</v>
+        <v>0.09591643386613488</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1226127015316976</v>
+        <v>0.1249146593616103</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1461249808312591</v>
+        <v>0.1453907746407676</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1016432799423303</v>
+        <v>0.08986620951089988</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1338779842065362</v>
+        <v>0.1277237346727368</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1153538618243585</v>
+        <v>0.1201627044317526</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1682993460269515</v>
+        <v>0.1696936525802915</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0963126758755193</v>
+        <v>0.09489217915955228</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1326685938528679</v>
+        <v>0.129810852651696</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2820316890270413</v>
+        <v>0.2722572669597052</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3393901260927196</v>
+        <v>0.3340388249801865</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2309254593000473</v>
+        <v>0.2393001582296891</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3326601511897718</v>
+        <v>0.3189140714505445</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4594798761372315</v>
+        <v>0.4779071315780554</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3520459940487334</v>
+        <v>0.36346509098854</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3360053219732662</v>
+        <v>0.3294481012124512</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3275623853692443</v>
+        <v>0.3228386861263701</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3189936676128168</v>
+        <v>0.3190442773557654</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3148069414524953</v>
+        <v>0.3086743800850017</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2448714390836011</v>
+        <v>0.2429313153807814</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2789084669715925</v>
+        <v>0.2833325327462571</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1832952479430206</v>
+        <v>0.1925392591920851</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1005787705811438</v>
+        <v>0.1002496558738384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05946939219707262</v>
+        <v>0.0590615594780786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02863433552696397</v>
+        <v>0.03740243600456139</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03825451477418589</v>
+        <v>0.03804840435704288</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1361782782928428</v>
+        <v>0.1408061698952799</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1314902321904378</v>
+        <v>0.1287866033057177</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08453264723796508</v>
+        <v>0.0895741570629269</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1398803526593536</v>
+        <v>0.1367481075529574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1393977370385358</v>
+        <v>0.1405947773328037</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1188252978111468</v>
+        <v>0.1293337568642042</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08602293272788271</v>
+        <v>0.08491723893207985</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5612462975944686</v>
+        <v>0.5687489615047985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3138872848562054</v>
+        <v>0.3174386456890573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3359078039873428</v>
+        <v>0.3096702071929933</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2825644912502195</v>
+        <v>0.303427955949445</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3024920781405268</v>
+        <v>0.321388563236308</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3668214795669317</v>
+        <v>0.3843142449613063</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4524987302813585</v>
+        <v>0.4723021589199274</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2555456823187386</v>
+        <v>0.2768019863978733</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3917569651628444</v>
+        <v>0.3843636550334086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2941083850609664</v>
+        <v>0.3022867492181623</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3226736452976143</v>
+        <v>0.3315272735093118</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2296939566745078</v>
+        <v>0.2264151765934604</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.0849619793798667</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1933894220577654</v>
+        <v>0.1933894220577653</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2530696628770367</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1867087067498007</v>
+        <v>0.2035681704257853</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2657513305051873</v>
+        <v>0.2598031551142506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09513706729911907</v>
+        <v>0.09108771382825458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06579580802281473</v>
+        <v>0.07058580938458217</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03811668812638579</v>
+        <v>0.03854598175533957</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2623909214449254</v>
+        <v>0.2626819250029345</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02127708561009154</v>
+        <v>0.02067883964547966</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1266379572339182</v>
+        <v>0.1332686095879425</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1461686506008963</v>
+        <v>0.1567676726694162</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2935908189716155</v>
+        <v>0.287236206871476</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08005446499475292</v>
+        <v>0.07434837455597899</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1167857959656928</v>
+        <v>0.1174888926109024</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5110830033378868</v>
+        <v>0.5327390364134399</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4560619703066068</v>
+        <v>0.4768003189051892</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.313724844826427</v>
+        <v>0.3070741557933904</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2349485699345825</v>
+        <v>0.2391642867227878</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3052348637071269</v>
+        <v>0.3320862069587404</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4936181846607055</v>
+        <v>0.4995102727750488</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1922289877083742</v>
+        <v>0.1870479603757416</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2754315055023098</v>
+        <v>0.281984727213026</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3862621128366918</v>
+        <v>0.3978903911378505</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4507088806001975</v>
+        <v>0.4441769163340365</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2213886568422803</v>
+        <v>0.2103195867552765</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2269553559480938</v>
+        <v>0.2269427433035815</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1525810898873958</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1693758866814272</v>
+        <v>0.1693758866814273</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1939422300684575</v>
+        <v>0.1815320839086485</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2000465606724085</v>
+        <v>0.1998332905392889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1185887536949331</v>
+        <v>0.1125356196550872</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1066436414711335</v>
+        <v>0.1063412246143457</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1454227086088456</v>
+        <v>0.1439694484624117</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1754096104823861</v>
+        <v>0.1685577535267469</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2317792469731457</v>
+        <v>0.2275236974518594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1166424917785176</v>
+        <v>0.1168391849727012</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1385661704445633</v>
+        <v>0.1374737962490031</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3602895246098741</v>
+        <v>0.3402234738514942</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3032568639912713</v>
+        <v>0.3042914733765441</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2234517197381383</v>
+        <v>0.2205163787498732</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2057547508631796</v>
+        <v>0.2104399273231093</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2286675902005628</v>
+        <v>0.2292229663175005</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2826283477042482</v>
+        <v>0.2813563759259844</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3082158731202521</v>
+        <v>0.3057050302085133</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1948902165250718</v>
+        <v>0.1895526349169909</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2058205367041098</v>
+        <v>0.2029136997489991</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2548</v>
+        <v>2075</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5711</v>
+        <v>5565</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2938</v>
+        <v>3707</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3907</v>
+        <v>3807</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7473</v>
+        <v>8067</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1015</v>
+        <v>923</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4720</v>
+        <v>4725</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3668</v>
+        <v>3816</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17399</v>
+        <v>17538</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6655</v>
+        <v>5640</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9906</v>
+        <v>10058</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10686</v>
+        <v>10992</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17582</v>
+        <v>17781</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12971</v>
+        <v>13476</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14441</v>
+        <v>14102</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5349</v>
+        <v>5362</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20455</v>
+        <v>20621</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8972</v>
+        <v>8455</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11799</v>
+        <v>11721</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13505</v>
+        <v>13128</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34983</v>
+        <v>34211</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18744</v>
+        <v>19112</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22137</v>
+        <v>23067</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2238</v>
+        <v>2144</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10654</v>
+        <v>11630</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3730</v>
+        <v>3754</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7721</v>
+        <v>7176</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3695</v>
+        <v>3764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10600</v>
+        <v>10547</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4819</v>
+        <v>4261</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8408</v>
+        <v>8022</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8411</v>
+        <v>8762</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>25517</v>
+        <v>25728</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10391</v>
+        <v>10238</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>18258</v>
+        <v>17864</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12065</v>
+        <v>11647</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26838</v>
+        <v>26415</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13965</v>
+        <v>14472</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24888</v>
+        <v>23859</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13846</v>
+        <v>14402</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25537</v>
+        <v>26365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15931</v>
+        <v>15620</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20572</v>
+        <v>20276</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>23259</v>
+        <v>23263</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>47730</v>
+        <v>46800</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26418</v>
+        <v>26209</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>38383</v>
+        <v>38992</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4364</v>
+        <v>4584</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5779</v>
+        <v>5761</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2181</v>
+        <v>2166</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>944</v>
+        <v>1233</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7768</v>
+        <v>8032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4150</v>
+        <v>4065</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4183</v>
+        <v>4432</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6703</v>
+        <v>6553</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15962</v>
+        <v>16099</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8107</v>
+        <v>8824</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7093</v>
+        <v>7002</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13361</v>
+        <v>13540</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18037</v>
+        <v>18241</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12316</v>
+        <v>11354</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9317</v>
+        <v>10005</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7294</v>
+        <v>7750</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20925</v>
+        <v>21923</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14281</v>
+        <v>14906</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12645</v>
+        <v>13696</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18773</v>
+        <v>18419</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>33677</v>
+        <v>34614</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22015</v>
+        <v>22619</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18939</v>
+        <v>18668</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6294</v>
+        <v>6862</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23441</v>
+        <v>22917</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5793</v>
+        <v>5546</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4181</v>
+        <v>4485</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18967</v>
+        <v>18988</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1332</v>
+        <v>1295</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9241</v>
+        <v>9725</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8390</v>
+        <v>8998</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>47119</v>
+        <v>46099</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>9887</v>
+        <v>9182</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15944</v>
+        <v>16040</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17229</v>
+        <v>17959</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40228</v>
+        <v>42058</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19101</v>
+        <v>18697</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14930</v>
+        <v>15198</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7231</v>
+        <v>7867</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>35681</v>
+        <v>36107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12037</v>
+        <v>11713</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20099</v>
+        <v>20577</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22171</v>
+        <v>22839</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>72335</v>
+        <v>71287</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>27342</v>
+        <v>25975</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>30984</v>
+        <v>30982</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23870</v>
+        <v>22342</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>56767</v>
+        <v>56706</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23674</v>
+        <v>22466</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23571</v>
+        <v>23504</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>33764</v>
+        <v>33427</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>38043</v>
+        <v>36557</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>124723</v>
+        <v>122433</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>45479</v>
+        <v>45556</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>62799</v>
+        <v>62304</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>44343</v>
+        <v>41874</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>86055</v>
+        <v>86348</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44609</v>
+        <v>44023</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>45477</v>
+        <v>46512</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>53092</v>
+        <v>53221</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>61297</v>
+        <v>61021</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>165855</v>
+        <v>164504</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>75988</v>
+        <v>73907</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>93278</v>
+        <v>91961</v>
       </c>
     </row>
     <row r="24">
